--- a/Mifos Automation Excels/Client/4589-RBI-DISBLOANON02JAN-instalmentFEE-INDCOLLSHEETON10JAN.xlsx
+++ b/Mifos Automation Excels/Client/4589-RBI-DISBLOANON02JAN-instalmentFEE-INDCOLLSHEETON10JAN.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -597,7 +597,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
   </cols>
   <sheetData>
@@ -720,15 +720,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>31</v>
       </c>
@@ -763,20 +766,21 @@
       <c r="L1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="8"/>
+      <c r="N1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="9">
@@ -803,8 +807,9 @@
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="10"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -837,20 +842,21 @@
       <c r="L3" s="10">
         <v>853.11</v>
       </c>
-      <c r="M3" s="10">
-        <v>0</v>
-      </c>
+      <c r="M3" s="10"/>
       <c r="N3" s="10">
+        <v>0</v>
+      </c>
+      <c r="O3" s="10">
         <v>853.11</v>
       </c>
-      <c r="O3" s="10">
+      <c r="P3" s="10">
         <v>100</v>
       </c>
-      <c r="P3" s="10">
+      <c r="Q3" s="10">
         <v>3.3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -885,9 +891,7 @@
       <c r="L4" s="10">
         <v>3.3</v>
       </c>
-      <c r="M4" s="10">
-        <v>0</v>
-      </c>
+      <c r="M4" s="10"/>
       <c r="N4" s="10">
         <v>0</v>
       </c>
@@ -897,8 +901,11 @@
       <c r="P4" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -931,9 +938,7 @@
       <c r="L5" s="10">
         <v>0</v>
       </c>
-      <c r="M5" s="10">
-        <v>0</v>
-      </c>
+      <c r="M5" s="10"/>
       <c r="N5" s="10">
         <v>0</v>
       </c>
@@ -941,10 +946,13 @@
         <v>0</v>
       </c>
       <c r="P5" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="10">
         <v>953.11</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -977,9 +985,7 @@
       <c r="L6" s="10">
         <v>0</v>
       </c>
-      <c r="M6" s="10">
-        <v>0</v>
-      </c>
+      <c r="M6" s="10"/>
       <c r="N6" s="10">
         <v>0</v>
       </c>
@@ -987,10 +993,13 @@
         <v>0</v>
       </c>
       <c r="P6" s="10">
-        <v>954.49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>954.49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -1023,9 +1032,7 @@
       <c r="L7" s="10">
         <v>0</v>
       </c>
-      <c r="M7" s="10">
-        <v>0</v>
-      </c>
+      <c r="M7" s="10"/>
       <c r="N7" s="10">
         <v>0</v>
       </c>
@@ -1033,10 +1040,13 @@
         <v>0</v>
       </c>
       <c r="P7" s="10">
-        <v>954.49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>954.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -1069,9 +1079,7 @@
       <c r="L8" s="10">
         <v>0</v>
       </c>
-      <c r="M8" s="10">
-        <v>0</v>
-      </c>
+      <c r="M8" s="10"/>
       <c r="N8" s="10">
         <v>0</v>
       </c>
@@ -1079,10 +1087,13 @@
         <v>0</v>
       </c>
       <c r="P8" s="10">
-        <v>954.49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>954.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -1115,9 +1126,7 @@
       <c r="L9" s="10">
         <v>0</v>
       </c>
-      <c r="M9" s="10">
-        <v>0</v>
-      </c>
+      <c r="M9" s="10"/>
       <c r="N9" s="10">
         <v>0</v>
       </c>
@@ -1125,10 +1134,13 @@
         <v>0</v>
       </c>
       <c r="P9" s="10">
-        <v>954.49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>954.49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -1161,9 +1173,7 @@
       <c r="L10" s="10">
         <v>0</v>
       </c>
-      <c r="M10" s="10">
-        <v>0</v>
-      </c>
+      <c r="M10" s="10"/>
       <c r="N10" s="10">
         <v>0</v>
       </c>
@@ -1171,10 +1181,13 @@
         <v>0</v>
       </c>
       <c r="P10" s="10">
-        <v>954.49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>954.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -1207,9 +1220,7 @@
       <c r="L11" s="10">
         <v>0</v>
       </c>
-      <c r="M11" s="10">
-        <v>0</v>
-      </c>
+      <c r="M11" s="10"/>
       <c r="N11" s="10">
         <v>0</v>
       </c>
@@ -1217,10 +1228,13 @@
         <v>0</v>
       </c>
       <c r="P11" s="10">
-        <v>954.49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>954.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -1253,9 +1267,7 @@
       <c r="L12" s="10">
         <v>0</v>
       </c>
-      <c r="M12" s="10">
-        <v>0</v>
-      </c>
+      <c r="M12" s="10"/>
       <c r="N12" s="10">
         <v>0</v>
       </c>
@@ -1263,10 +1275,13 @@
         <v>0</v>
       </c>
       <c r="P12" s="10">
-        <v>954.49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>954.49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>11</v>
       </c>
@@ -1299,9 +1314,7 @@
       <c r="L13" s="10">
         <v>0</v>
       </c>
-      <c r="M13" s="10">
-        <v>0</v>
-      </c>
+      <c r="M13" s="10"/>
       <c r="N13" s="10">
         <v>0</v>
       </c>
@@ -1309,10 +1322,13 @@
         <v>0</v>
       </c>
       <c r="P13" s="10">
-        <v>954.49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>954.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -1345,9 +1361,7 @@
       <c r="L14" s="10">
         <v>0</v>
       </c>
-      <c r="M14" s="10">
-        <v>0</v>
-      </c>
+      <c r="M14" s="10"/>
       <c r="N14" s="10">
         <v>0</v>
       </c>
@@ -1355,10 +1369,13 @@
         <v>0</v>
       </c>
       <c r="P14" s="10">
-        <v>954.49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>954.49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -1391,9 +1408,7 @@
       <c r="L15" s="10">
         <v>0</v>
       </c>
-      <c r="M15" s="10">
-        <v>0</v>
-      </c>
+      <c r="M15" s="10"/>
       <c r="N15" s="10">
         <v>0</v>
       </c>
@@ -1401,6 +1416,9 @@
         <v>0</v>
       </c>
       <c r="P15" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="10">
         <v>954.53</v>
       </c>
     </row>
@@ -1420,7 +1438,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
